--- a/Output Data/Crpo/Common_folder/Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="50">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -95,6 +95,18 @@
     <t xml:space="preserve">11:27:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:55:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:59:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:05:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -116,6 +128,9 @@
     <t xml:space="preserve">11:29:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:00:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -150,6 +165,15 @@
   </si>
   <si>
     <t xml:space="preserve">11:32:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:02:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:06:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:09:AM</t>
   </si>
 </sst>
 </file>
@@ -451,16 +475,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.828192066666667</c:v>
+                  <c:v>0.80115815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.17125984444444</c:v>
+                  <c:v>2.14886401666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.706128533333333</c:v>
+                  <c:v>0.725215733333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.46121482222222</c:v>
+                  <c:v>3.49758085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,16 +553,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.601685666666667</c:v>
+                  <c:v>0.606046433333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.10325126666667</c:v>
+                  <c:v>2.08416628333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.899293222222222</c:v>
+                  <c:v>0.897662933333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.06292582222222</c:v>
+                  <c:v>2.38822288333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,16 +631,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0284944</c:v>
+                  <c:v>0.9499793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.74189831111111</c:v>
+                  <c:v>1.72067226666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.03844302222222</c:v>
+                  <c:v>1.03512646666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.13203824444444</c:v>
+                  <c:v>2.16794533333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,16 +709,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.19594815555556</c:v>
+                  <c:v>1.24141988333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0859054</c:v>
+                  <c:v>2.00935405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.40506466666667</c:v>
+                  <c:v>1.47244848333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.40482233333333</c:v>
+                  <c:v>2.49531786666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,16 +787,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.723738733333333</c:v>
+                  <c:v>0.730525216666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.70095762222222</c:v>
+                  <c:v>1.58026381666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.04791235555556</c:v>
+                  <c:v>1.0229376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.58687384444444</c:v>
+                  <c:v>1.62761673333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,11 +804,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="6878650"/>
-        <c:axId val="53698784"/>
+        <c:axId val="30427069"/>
+        <c:axId val="36515642"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6878650"/>
+        <c:axId val="30427069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,14 +874,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53698784"/>
+        <c:crossAx val="36515642"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53698784"/>
+        <c:axId val="36515642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +947,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6878650"/>
+        <c:crossAx val="30427069"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1016,7 +1040,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1052,19 +1076,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.828192066666667</v>
+        <v>0.80115815</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.601685666666667</v>
+        <v>0.606046433333334</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.0284944</v>
+        <v>0.9499793</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.19594815555556</v>
+        <v>1.24141988333333</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.723738733333333</v>
+        <v>0.730525216666667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,19 +1096,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.17125984444444</v>
+        <v>2.14886401666667</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.10325126666667</v>
+        <v>2.08416628333333</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.74189831111111</v>
+        <v>1.72067226666667</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.0859054</v>
+        <v>2.00935405</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.70095762222222</v>
+        <v>1.58026381666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,19 +1116,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.706128533333333</v>
+        <v>0.725215733333333</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.899293222222222</v>
+        <v>0.897662933333333</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.03844302222222</v>
+        <v>1.03512646666667</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1.40506466666667</v>
+        <v>1.47244848333333</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.04791235555556</v>
+        <v>1.0229376</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,19 +1136,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3.46121482222222</v>
+        <v>3.49758085</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2.06292582222222</v>
+        <v>2.38822288333333</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.13203824444444</v>
+        <v>2.16794533333333</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.40482233333333</v>
+        <v>2.49531786666667</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.58687384444444</v>
+        <v>1.62761673333333</v>
       </c>
     </row>
   </sheetData>
@@ -1144,10 +1168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1392,7 +1416,75 @@
         <v>0.6793062</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.6828446</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.584492</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.6073196</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1.3202734</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.8715832</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.7597984</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.5214974</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.6547488</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1.138254</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.7388546</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.7175262</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.7513968</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.8812336</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1.6749778</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.6422162</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1409,7 +1501,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
@@ -1455,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.0220664</v>
@@ -1478,7 +1570,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.4586498</v>
@@ -1524,7 +1616,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.1296676</v>
@@ -1547,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.0261682</v>
@@ -1593,7 +1685,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.1709282</v>
@@ -1616,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.1589454</v>
@@ -1639,7 +1731,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.0390428</v>
@@ -1657,7 +1749,75 @@
         <v>1.348885</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>2.1974606</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3.3558078</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1.3679732</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1.9912686</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>1.0220436</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1.9875636</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1.1025608</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1.5520504</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1.6982798</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>1.2850914</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2.0600054</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1.6223654</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>2.0509588</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1.6495516</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>1.3474122</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1674,7 +1834,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
@@ -1720,7 +1880,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0.7804054</v>
@@ -1743,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0.7779802</v>
@@ -1766,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0.7043458</v>
@@ -1789,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.7145706</v>
@@ -1812,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.7079038</v>
@@ -1835,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.649763</v>
@@ -1858,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.6280168</v>
@@ -1881,7 +2041,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.6548006</v>
@@ -1904,7 +2064,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.7373706</v>
@@ -1922,7 +2082,75 @@
         <v>0.8262036</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.6173612</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.9932774</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.7973548</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1.641016</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.8644848</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.7234852</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.8300066</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.8723282</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1.7246602</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>1.1031792</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1.0065856</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.8550322</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1.4058474</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1.6581236</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.876376</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1939,7 +2167,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
@@ -1985,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.4656902</v>
@@ -2008,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.0852622</v>
@@ -2031,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.9817282</v>
@@ -2054,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.2355116</v>
@@ -2077,7 +2305,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.372143</v>
@@ -2100,7 +2328,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.4754352</v>
@@ -2123,7 +2351,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.7434734</v>
@@ -2146,7 +2374,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.5561424</v>
@@ -2169,7 +2397,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.2355472</v>
@@ -2187,7 +2415,75 @@
         <v>1.4688126</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>3.8741284</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3.4575886</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>2.6965726</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>2.6390518</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>1.5043904</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>3.5923944</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4.529002</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>2.2702844</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>2.3274252</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>1.5767922</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>3.353514</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>2.1057516</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1.8601428</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3.3339364</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>2.1683536</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
